--- a/knn_sampling_comparison.xlsx
+++ b/knn_sampling_comparison.xlsx
@@ -492,25 +492,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.4737</v>
+        <v>0.5592</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3404</v>
+        <v>0.4219</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4722</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4737</v>
+        <v>0.5592</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4727</v>
+        <v>0.5654</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6833</v>
+        <v>0.7667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4968</v>
+        <v>0.5673</v>
       </c>
     </row>
     <row r="3">
@@ -525,25 +525,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6974</v>
+        <v>0.7039</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5284</v>
+        <v>0.5555</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7038</v>
+        <v>0.7059</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6974</v>
+        <v>0.7039</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7156</v>
+        <v>0.7206</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8613</v>
+        <v>0.8793</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6942</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="4">
@@ -558,25 +558,25 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.3947</v>
+        <v>0.4342</v>
       </c>
       <c r="D4" t="n">
-        <v>0.331</v>
+        <v>0.3617</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4312</v>
+        <v>0.4777</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3947</v>
+        <v>0.4342</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4936</v>
+        <v>0.553</v>
       </c>
       <c r="H4" t="n">
-        <v>0.643</v>
+        <v>0.7039</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4852</v>
+        <v>0.5185999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2697</v>
+        <v>0.2763</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2452</v>
+        <v>0.2554</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2979</v>
+        <v>0.3166</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2697</v>
+        <v>0.2763</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4393</v>
+        <v>0.4464</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5846</v>
+        <v>0.6524</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4006</v>
+        <v>0.4623</v>
       </c>
     </row>
     <row r="6">
@@ -624,25 +624,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4079</v>
+        <v>0.4605</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3576</v>
+        <v>0.3821</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4473</v>
+        <v>0.4985</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4079</v>
+        <v>0.4605</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5358000000000001</v>
+        <v>0.5643</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6578000000000001</v>
+        <v>0.727</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4865</v>
+        <v>0.5394</v>
       </c>
     </row>
   </sheetData>
